--- a/output/fit_clients/fit_round_360.xlsx
+++ b/output/fit_clients/fit_round_360.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1703666498.273824</v>
+        <v>1661793285.801656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08506781767435059</v>
+        <v>0.09814518944476233</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02887706978847545</v>
+        <v>0.02851380966855475</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>851833204.9134781</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1655719411.492205</v>
+        <v>2127992545.12845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1132150073415947</v>
+        <v>0.1135124320880748</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04485640921806083</v>
+        <v>0.03398584133802555</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>827859692.4937497</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4097553335.429327</v>
+        <v>5171156056.205816</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1424033575537868</v>
+        <v>0.1468356773972278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03806729997668065</v>
+        <v>0.03007989551608121</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>130</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2048776688.827052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2916055859.937979</v>
+        <v>2901477404.791339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09184908739178298</v>
+        <v>0.09125637272262037</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03952549636354336</v>
+        <v>0.04541807943917178</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1458028005.389587</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2297735567.608126</v>
+        <v>2095690750.670278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1183198477326934</v>
+        <v>0.1378596637230313</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03777909760888478</v>
+        <v>0.05216004138646609</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1148867781.185074</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2672247219.040109</v>
+        <v>2651949338.224559</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09260020373159181</v>
+        <v>0.09299016997084815</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03393967358463294</v>
+        <v>0.03252746081620757</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>112</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1336123605.945368</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3722249312.934956</v>
+        <v>2419623570.818058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2111100424235861</v>
+        <v>0.1670029512229233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02160089250354479</v>
+        <v>0.0289847449345413</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>115</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1861124787.828951</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258503124.259642</v>
+        <v>1861125792.132755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1662287060600818</v>
+        <v>0.1449495503650376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0325186325371114</v>
+        <v>0.025914480698128</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1129251552.888523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4008749302.073093</v>
+        <v>5267355912.904823</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1546702516000161</v>
+        <v>0.2001067559436891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04992441583007897</v>
+        <v>0.05211596923050124</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>151</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2004374673.589212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3468874797.843391</v>
+        <v>2729870801.136101</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1198301193285828</v>
+        <v>0.1514870392244578</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03590628838394731</v>
+        <v>0.04409501813526891</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>149</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1734437374.543279</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2594288007.282223</v>
+        <v>3015112010.991092</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1603575526506008</v>
+        <v>0.1485284837598607</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03745392165406368</v>
+        <v>0.04861941494133584</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>123</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1297143984.526815</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3576937944.816475</v>
+        <v>4300308628.795932</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08678974014665715</v>
+        <v>0.06510309579720421</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02135235110916311</v>
+        <v>0.02914348765656237</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>121</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1788469048.836904</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3283547079.770066</v>
+        <v>3821522565.39836</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1147954803167774</v>
+        <v>0.1291213891652399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04221981174379368</v>
+        <v>0.03299262349699315</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1641773553.79675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1610881483.32458</v>
+        <v>1502141672.018195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09635836148659389</v>
+        <v>0.07494730191409871</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04182175596190854</v>
+        <v>0.04441960986348836</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>805440852.3202022</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1952699662.439017</v>
+        <v>1914521412.22422</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1047669486760256</v>
+        <v>0.1135352048626476</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04568820987726614</v>
+        <v>0.04861924749388938</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>976349910.9356084</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4639041466.84039</v>
+        <v>4681087396.081038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1105947162173746</v>
+        <v>0.1523152516555907</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03827317484693196</v>
+        <v>0.05014961555649749</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>105</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2319520736.432642</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3068133920.847498</v>
+        <v>3433300081.360284</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1266995659065208</v>
+        <v>0.148369298479012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02477317306858723</v>
+        <v>0.02295339216680211</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>118</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1534066985.762744</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1118193904.154103</v>
+        <v>1323413291.113476</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1395445389809256</v>
+        <v>0.1334597723484037</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01716362118068393</v>
+        <v>0.02124620156099746</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>559097010.0741556</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2756177686.625823</v>
+        <v>1957493270.016356</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1360447752081428</v>
+        <v>0.1002620150104143</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0203814236496716</v>
+        <v>0.02409383707313127</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1378088789.120381</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1977945476.885504</v>
+        <v>2496375365.817457</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06897667688227101</v>
+        <v>0.09913717299923379</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04378262748903112</v>
+        <v>0.03990201552187871</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>988972776.5245446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2644085607.265497</v>
+        <v>3677437525.520546</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1290149048521531</v>
+        <v>0.13457870760675</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04061134541103994</v>
+        <v>0.03616984898837083</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>99</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1322042886.487801</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1071136331.52722</v>
+        <v>978864359.0342535</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1472367778750127</v>
+        <v>0.1248111434038067</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04295653718237624</v>
+        <v>0.04609199101115059</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>535568223.9737841</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3304826550.617215</v>
+        <v>3708829504.89985</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1179591982812707</v>
+        <v>0.1033576500283494</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03680443472376407</v>
+        <v>0.03009978661637877</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>105</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1652413290.060799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1261055236.52319</v>
+        <v>1275949616.028941</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09361147544354358</v>
+        <v>0.1156062579951831</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02154464224746026</v>
+        <v>0.02983866676651375</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>630527622.1853631</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1044322871.206257</v>
+        <v>875646965.4953265</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1236746155181872</v>
+        <v>0.09396363728442428</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02648379529805741</v>
+        <v>0.03196417613573993</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>522161418.5170618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3378507207.335815</v>
+        <v>2900545052.573985</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1109868676732299</v>
+        <v>0.1453638480237816</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02521489233201393</v>
+        <v>0.02144596372203886</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1689253644.678965</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3874101678.38453</v>
+        <v>3812182796.357226</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1226444083993553</v>
+        <v>0.1217374934403169</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04742852749925124</v>
+        <v>0.03038452588976235</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>116</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1937050926.307224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3795731097.776634</v>
+        <v>5192036335.383317</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09578063679440436</v>
+        <v>0.1215003917077688</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04484091019118664</v>
+        <v>0.04037148589288266</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>159</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1897865579.947441</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1870144075.704597</v>
+        <v>2407996776.083105</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1114031591052183</v>
+        <v>0.1295174014685833</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02723264431874584</v>
+        <v>0.02507434576049724</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>935072060.5323842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1133353353.320095</v>
+        <v>1259927499.407428</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1123988762103977</v>
+        <v>0.07341627474108703</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03276043346862135</v>
+        <v>0.04036077185488732</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>566676643.8210304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1781024131.418991</v>
+        <v>1892098343.85656</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1145641318558426</v>
+        <v>0.1038120813204609</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02407754016702182</v>
+        <v>0.03622844327300261</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>890512192.2858356</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2443608401.667623</v>
+        <v>2194141084.281255</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1790430070039735</v>
+        <v>0.1821987941277825</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04718929478183852</v>
+        <v>0.06100548223879283</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>108</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1221804243.840001</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1118443327.415159</v>
+        <v>1260526027.077894</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1029999043414051</v>
+        <v>0.08371288115712723</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02047375896762763</v>
+        <v>0.02303288475546931</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>559221682.1485271</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1045847577.248461</v>
+        <v>824532534.386711</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07131230965988614</v>
+        <v>0.08134487598759532</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04186940411440861</v>
+        <v>0.0417283915752466</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>522923797.1497127</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2231864228.704795</v>
+        <v>2758033712.945313</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1506675517019646</v>
+        <v>0.1123465479775444</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01930668910710164</v>
+        <v>0.0251837885306561</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1115932157.839438</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2367337819.812071</v>
+        <v>1916913462.025604</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1082366273754175</v>
+        <v>0.1121793654125109</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02617592461605073</v>
+        <v>0.03331945156264152</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>96</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1183668987.760318</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1641067335.683585</v>
+        <v>1343005120.404686</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07986754104986214</v>
+        <v>0.1022473365782877</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03045238407989233</v>
+        <v>0.03623889468798413</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>820533697.1861236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2180851274.522942</v>
+        <v>1495931316.819403</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1600002580932696</v>
+        <v>0.118742569645818</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03062200498321788</v>
+        <v>0.02453953226926421</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1090425604.348687</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1756704541.170691</v>
+        <v>1573051956.113258</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09991310578876032</v>
+        <v>0.1498894259081632</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05803759165747914</v>
+        <v>0.05375413039742549</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>878352172.5334822</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1832082018.403561</v>
+        <v>2330236198.424041</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1183409389992732</v>
+        <v>0.1064702603528926</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04610774242219735</v>
+        <v>0.03169985967993383</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>92</v>
-      </c>
-      <c r="J41" t="n">
-        <v>916041099.9191693</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4015627958.04789</v>
+        <v>4193537153.145663</v>
       </c>
       <c r="F42" t="n">
-        <v>0.096256337743793</v>
+        <v>0.08110867538488274</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03467642014047963</v>
+        <v>0.03164813843690274</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>117</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2007814009.368131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2695147901.746542</v>
+        <v>2765366216.972408</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1874329686045192</v>
+        <v>0.1635165766280738</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02363516437983644</v>
+        <v>0.02511827701209102</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>128</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1347573979.927169</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2211603301.151614</v>
+        <v>1755302890.10814</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08236905955513217</v>
+        <v>0.07591868271476013</v>
       </c>
       <c r="G44" t="n">
-        <v>0.025101361432491</v>
+        <v>0.02278337389906816</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1105801799.139668</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2325679706.895545</v>
+        <v>2171557762.48971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1362182349762396</v>
+        <v>0.126905815282537</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05145248280648056</v>
+        <v>0.04422162272083242</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1162839877.187222</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4717638825.840941</v>
+        <v>4514100558.497088</v>
       </c>
       <c r="F46" t="n">
-        <v>0.141245969353524</v>
+        <v>0.1346157393008419</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05216097326973301</v>
+        <v>0.05934113572190598</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>128</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2358819423.561758</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4268371220.796355</v>
+        <v>4877444349.643353</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1239287612540123</v>
+        <v>0.1489639234025595</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05010181457372417</v>
+        <v>0.03621663531699359</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>97</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2134185624.785873</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2847625584.981312</v>
+        <v>3549696385.551281</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0858021681472778</v>
+        <v>0.1096766623837011</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03470294975330029</v>
+        <v>0.02671523202038981</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1423812893.834604</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1327450543.647068</v>
+        <v>1291686453.303951</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1756037426692286</v>
+        <v>0.1732062900469006</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04216762413126963</v>
+        <v>0.04056529402263531</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>663725330.6730353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3297208281.181662</v>
+        <v>3177883500.798788</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1389557543083422</v>
+        <v>0.1563191490430042</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03380363324919914</v>
+        <v>0.03418701780751612</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>123</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1648604179.288604</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1288250062.7395</v>
+        <v>1455956299.921067</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1809217028126823</v>
+        <v>0.1536377641533236</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05086881764923655</v>
+        <v>0.04938073041424326</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>644125068.6317773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3544096838.898898</v>
+        <v>3317831068.398383</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1020294680025313</v>
+        <v>0.0916540726399501</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04123848064832056</v>
+        <v>0.0572884843629908</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>148</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1772048502.769224</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3593813855.432999</v>
+        <v>2490787479.892204</v>
       </c>
       <c r="F53" t="n">
-        <v>0.177359829472761</v>
+        <v>0.1523648556361828</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03426686324248303</v>
+        <v>0.0312189525450487</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1796906919.189385</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4888888409.323807</v>
+        <v>3342001189.239028</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1649378373841737</v>
+        <v>0.1533304471218841</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03914885967683763</v>
+        <v>0.03351208625366162</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>117</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2444444338.526248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3851422115.504282</v>
+        <v>3966203092.52956</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1690412393866225</v>
+        <v>0.2024398103668032</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02245078638503794</v>
+        <v>0.03118516098251083</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>94</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1925711026.11505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1649332827.172383</v>
+        <v>1175687449.575635</v>
       </c>
       <c r="F56" t="n">
-        <v>0.120264864898404</v>
+        <v>0.1076250152756257</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04525411112436131</v>
+        <v>0.03748455654999958</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>824666433.7243024</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3423397411.269641</v>
+        <v>2766595371.965615</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1479238497866558</v>
+        <v>0.1361463852058548</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02393803249792465</v>
+        <v>0.02600661050875048</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>114</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1711698745.598907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1352061858.409176</v>
+        <v>1497568344.423937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1235587674325275</v>
+        <v>0.1490450707068587</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03353567797084011</v>
+        <v>0.02856934023659298</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>676030973.8507422</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4334469787.30517</v>
+        <v>3666926019.784921</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1051345765710015</v>
+        <v>0.09515611535191361</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04896191662355782</v>
+        <v>0.03390840603781355</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2167234853.460583</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2957525905.894107</v>
+        <v>3778668695.415483</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1817697186825385</v>
+        <v>0.1577161216344707</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03088132290006349</v>
+        <v>0.02715644820826046</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>112</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1478763018.851515</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3161499721.778982</v>
+        <v>2785189002.830688</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1666624065993313</v>
+        <v>0.1386093825453908</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02504358194080795</v>
+        <v>0.02672663058283417</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>124</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1580749826.134751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902833657.054781</v>
+        <v>1519653485.039355</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1909605385652867</v>
+        <v>0.1631875642768218</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03783519096185974</v>
+        <v>0.04872265985249862</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>951416872.0500448</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4687229430.044587</v>
+        <v>5440418432.300363</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0874321329777402</v>
+        <v>0.107827800184242</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03337623850493934</v>
+        <v>0.0397556066509574</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2343614746.732449</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5389603655.706</v>
+        <v>3885716140.597699</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1334424778081231</v>
+        <v>0.1694416042928374</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02705197985143708</v>
+        <v>0.02931845173316862</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>112</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2694801961.46201</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4505448275.198655</v>
+        <v>5683193423.301702</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1591624587338326</v>
+        <v>0.1380534937273527</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02643991437866382</v>
+        <v>0.02321448473308393</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>129</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2252724126.035758</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5032285840.011879</v>
+        <v>4673069479.750314</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1358605093635234</v>
+        <v>0.1002348191236451</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05127795574319665</v>
+        <v>0.03630014034641137</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>105</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2516142948.942725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2925830314.211501</v>
+        <v>2769205051.284913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09359313564454208</v>
+        <v>0.08097375007844443</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05019367698764149</v>
+        <v>0.03919647644275786</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>115</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1462915181.626787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4726281097.826229</v>
+        <v>4163003951.56003</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1576344455504337</v>
+        <v>0.118784186700102</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05048553619078242</v>
+        <v>0.03858748035198311</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2363140588.732412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2450130425.673379</v>
+        <v>1882858158.264078</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1609140558599043</v>
+        <v>0.1822988631290357</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04987976035945963</v>
+        <v>0.05853196944388598</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1225065275.988405</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3283174315.503712</v>
+        <v>2284344798.336179</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06719960021055477</v>
+        <v>0.101591607916418</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04410651032623086</v>
+        <v>0.04457060099393039</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>103</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1641587153.190671</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4972109397.213673</v>
+        <v>4277999984.164561</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1151240543916611</v>
+        <v>0.1676454253968914</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02167715390362858</v>
+        <v>0.02779115636474313</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>131</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2486054802.213075</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2002342471.482367</v>
+        <v>1782887276.718163</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08288390835387695</v>
+        <v>0.08877341991870891</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0332305793589287</v>
+        <v>0.0512454077537106</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1001171181.727796</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2351361982.823318</v>
+        <v>3105952069.51891</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09659208665537251</v>
+        <v>0.109953760966315</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03700587398632215</v>
+        <v>0.03547112361609063</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>136</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1175681046.801411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3820445630.830608</v>
+        <v>3957302690.782813</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1615520821292215</v>
+        <v>0.1210087844753995</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03089458431856084</v>
+        <v>0.02686157357572976</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>123</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1910222809.889643</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1780591716.301325</v>
+        <v>2290294091.524942</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1503351547306568</v>
+        <v>0.1600306048808314</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03063930642911828</v>
+        <v>0.02842191842024007</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>890295842.8834561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5009513581.438661</v>
+        <v>3965024351.071903</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1092048966760395</v>
+        <v>0.08187390089059453</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0295812926458668</v>
+        <v>0.03155868995365207</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>87</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2504756817.798955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1782962550.131222</v>
+        <v>1953387295.937917</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1696827753567106</v>
+        <v>0.1588081263515743</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02724319790774773</v>
+        <v>0.02073995519466243</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>891481304.5110124</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3262007484.76112</v>
+        <v>4720855151.129417</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08995752224162211</v>
+        <v>0.1145866959482133</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03969165536637989</v>
+        <v>0.03562547061339805</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>125</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1631003760.942059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1280631759.20332</v>
+        <v>1493475849.113138</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1432802810755575</v>
+        <v>0.1373351697980467</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03283644897845034</v>
+        <v>0.02600655511582445</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>640315875.4174777</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4872579344.244925</v>
+        <v>4812665799.821403</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0811800838301545</v>
+        <v>0.07126584491077512</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0260140286484026</v>
+        <v>0.03191269730585584</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2436289714.988343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5027250556.32235</v>
+        <v>4577870195.372442</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1060012290013658</v>
+        <v>0.116688594112188</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02638856377214909</v>
+        <v>0.02898569503701171</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2513625279.519354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5347803642.378747</v>
+        <v>3511649819.447267</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1723024497869662</v>
+        <v>0.1852568727557135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02644855687167175</v>
+        <v>0.02257330638558271</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2673901785.74752</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1807946764.646591</v>
+        <v>1697973479.85578</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1202825820200581</v>
+        <v>0.1278326997645372</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03198905706346923</v>
+        <v>0.04288617013911893</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>903973343.7600362</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1768468678.640118</v>
+        <v>2521562301.623339</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08989673951284283</v>
+        <v>0.1205708022960238</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04178729824649953</v>
+        <v>0.04231792471390314</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>884234378.2921053</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2943606065.704479</v>
+        <v>3222475463.578889</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1833643335250702</v>
+        <v>0.1509625396934831</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04200030157989894</v>
+        <v>0.05176223836888254</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>135</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1471803086.788424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2725425236.631247</v>
+        <v>2179518879.70694</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1448121520856422</v>
+        <v>0.1311560142946805</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01797847484186125</v>
+        <v>0.02753394413992951</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1362712746.836131</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1458637565.331816</v>
+        <v>1251925752.413219</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1633641415205676</v>
+        <v>0.1717020885101206</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02868156738164766</v>
+        <v>0.03369185849608664</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>729318904.5640082</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3120016419.877945</v>
+        <v>2463872005.830574</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1603671625328822</v>
+        <v>0.1680819136160767</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03972309829281756</v>
+        <v>0.02727274438546336</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>143</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1560008252.257631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2773864887.155783</v>
+        <v>2954166575.616673</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09977114763530516</v>
+        <v>0.1449405505028693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02789246866318551</v>
+        <v>0.0371418995558525</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>122</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1386932498.262996</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1751240292.010297</v>
+        <v>1663085029.630063</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1287656424334389</v>
+        <v>0.1286324463024951</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05567795026477454</v>
+        <v>0.05492791258433303</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>875620170.7027256</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1727359678.408818</v>
+        <v>1727001511.297539</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1440887991965401</v>
+        <v>0.1728074302666908</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04540123549555555</v>
+        <v>0.03823798958353587</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>863679847.8147566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2887855865.606125</v>
+        <v>2064390494.619514</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1019117184084511</v>
+        <v>0.0910244658573208</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03739347200503698</v>
+        <v>0.04072467168183182</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>98</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1443927946.108521</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4865690149.946833</v>
+        <v>4780868167.515065</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1153641056306868</v>
+        <v>0.1378287141122501</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05412984727965296</v>
+        <v>0.04710068822841506</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2432845019.602785</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2127216646.183169</v>
+        <v>2110605931.177134</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1491867682710539</v>
+        <v>0.1374392406196536</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03338748480869008</v>
+        <v>0.03545393531742424</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1063608337.983487</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2786581533.967206</v>
+        <v>3060032110.05503</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1211824988851612</v>
+        <v>0.1093534665929406</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04136195863642119</v>
+        <v>0.03664016981915087</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1393290782.23494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2354662726.321505</v>
+        <v>1992967999.147872</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09049780748893259</v>
+        <v>0.1290265984214674</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04324716124827281</v>
+        <v>0.03326601591122118</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1177331312.283621</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4815537212.675203</v>
+        <v>5383170942.272988</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1467637579740624</v>
+        <v>0.1133179917455003</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02024654622964591</v>
+        <v>0.0221085589252308</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2407768728.323977</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3607605935.396329</v>
+        <v>3274254036.286362</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1148119965911547</v>
+        <v>0.1044669578318937</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03171076432365397</v>
+        <v>0.02069904142491277</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1803802993.590025</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3278004636.972159</v>
+        <v>2435289064.716028</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1413955286800911</v>
+        <v>0.1066701915958304</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02851042324132784</v>
+        <v>0.03331114912167824</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>113</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1639002324.593972</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3872188173.116335</v>
+        <v>4810117860.085279</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1101088511297853</v>
+        <v>0.131920772229567</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02178401068924921</v>
+        <v>0.01708469911568254</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1936094147.043409</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2449563704.656727</v>
+        <v>2216072419.419887</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1351944844843035</v>
+        <v>0.1665203087224435</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0449491033177142</v>
+        <v>0.050096241591769</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>147</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1224781868.638961</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_360.xlsx
+++ b/output/fit_clients/fit_round_360.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1661793285.801656</v>
+        <v>2403040379.398551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09814518944476233</v>
+        <v>0.07755926833464728</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02851380966855475</v>
+        <v>0.04111557886699287</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2127992545.12845</v>
+        <v>2169061421.73335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1135124320880748</v>
+        <v>0.1611988879769322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03398584133802555</v>
+        <v>0.04868705335809598</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5171156056.205816</v>
+        <v>3981598606.248953</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1468356773972278</v>
+        <v>0.1308433240708203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03007989551608121</v>
+        <v>0.03182469200110825</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2901477404.791339</v>
+        <v>3034705281.96602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09125637272262037</v>
+        <v>0.07096698282620108</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04541807943917178</v>
+        <v>0.03999809263294031</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2095690750.670278</v>
+        <v>2559199135.268764</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1378596637230313</v>
+        <v>0.09162095487719771</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05216004138646609</v>
+        <v>0.0508118082474272</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2651949338.224559</v>
+        <v>2153490282.369275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09299016997084815</v>
+        <v>0.07464139390351629</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03252746081620757</v>
+        <v>0.03651422741928896</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2419623570.818058</v>
+        <v>3648737065.491738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1670029512229233</v>
+        <v>0.1423262162503451</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0289847449345413</v>
+        <v>0.03163018111916226</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1861125792.132755</v>
+        <v>1801185935.024644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1449495503650376</v>
+        <v>0.180808722898032</v>
       </c>
       <c r="G9" t="n">
-        <v>0.025914480698128</v>
+        <v>0.03083603765136138</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5267355912.904823</v>
+        <v>3804619094.645242</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2001067559436891</v>
+        <v>0.164323442831335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05211596923050124</v>
+        <v>0.03558906581051449</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2729870801.136101</v>
+        <v>3773369447.272982</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1514870392244578</v>
+        <v>0.1725584165708814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04409501813526891</v>
+        <v>0.03499889952192754</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3015112010.991092</v>
+        <v>2591341742.012983</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1485284837598607</v>
+        <v>0.1528213112998059</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04861941494133584</v>
+        <v>0.04431416278520232</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4300308628.795932</v>
+        <v>4244637928.272292</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06510309579720421</v>
+        <v>0.07088603280511734</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02914348765656237</v>
+        <v>0.02557498715519165</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3821522565.39836</v>
+        <v>3581650906.773894</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1291213891652399</v>
+        <v>0.1820385965009817</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03299262349699315</v>
+        <v>0.03777293849783095</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1502141672.018195</v>
+        <v>1372053235.713992</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07494730191409871</v>
+        <v>0.07587995556580422</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04441960986348836</v>
+        <v>0.03229471653332623</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1914521412.22422</v>
+        <v>2715118567.072952</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1135352048626476</v>
+        <v>0.09340729845033216</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04861924749388938</v>
+        <v>0.04053881786988926</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4681087396.081038</v>
+        <v>4743172980.28109</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1523152516555907</v>
+        <v>0.1328984828891572</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05014961555649749</v>
+        <v>0.04544448317967229</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3433300081.360284</v>
+        <v>2613854281.012204</v>
       </c>
       <c r="F18" t="n">
-        <v>0.148369298479012</v>
+        <v>0.1299076140723188</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02295339216680211</v>
+        <v>0.02744131625003697</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1323413291.113476</v>
+        <v>1301660875.486688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1334597723484037</v>
+        <v>0.189060278774389</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02124620156099746</v>
+        <v>0.01830105064008603</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1957493270.016356</v>
+        <v>2096954971.26143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1002620150104143</v>
+        <v>0.1435137281142468</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02409383707313127</v>
+        <v>0.01963507461582391</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2496375365.817457</v>
+        <v>2066828753.825639</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09913717299923379</v>
+        <v>0.07832007937925148</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03990201552187871</v>
+        <v>0.04093581260278001</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3677437525.520546</v>
+        <v>2676276456.008681</v>
       </c>
       <c r="F22" t="n">
-        <v>0.13457870760675</v>
+        <v>0.1102603450108331</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03616984898837083</v>
+        <v>0.04713075890970412</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>978864359.0342535</v>
+        <v>1407777233.072769</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1248111434038067</v>
+        <v>0.1290314841575409</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04609199101115059</v>
+        <v>0.03679295199958982</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3708829504.89985</v>
+        <v>2929775745.709418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1033576500283494</v>
+        <v>0.143391118039159</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03009978661637877</v>
+        <v>0.03366526969852401</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1275949616.028941</v>
+        <v>1380044570.820466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1156062579951831</v>
+        <v>0.07835716525865093</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02983866676651375</v>
+        <v>0.02153127701193006</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>875646965.4953265</v>
+        <v>1059050390.135217</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09396363728442428</v>
+        <v>0.1177637629485282</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03196417613573993</v>
+        <v>0.03570128779150988</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2900545052.573985</v>
+        <v>2916822389.576736</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1453638480237816</v>
+        <v>0.1220514458845109</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02144596372203886</v>
+        <v>0.02132697301661417</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3812182796.357226</v>
+        <v>2384621641.539898</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1217374934403169</v>
+        <v>0.1488327910073109</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03038452588976235</v>
+        <v>0.05012887853800894</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5192036335.383317</v>
+        <v>5866491214.836219</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1215003917077688</v>
+        <v>0.1000017234250891</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04037148589288266</v>
+        <v>0.03355190296616185</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2407996776.083105</v>
+        <v>1720974281.146089</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1295174014685833</v>
+        <v>0.08864553317051001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02507434576049724</v>
+        <v>0.02489753418726698</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1259927499.407428</v>
+        <v>1300953437.176942</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07341627474108703</v>
+        <v>0.08743189016824118</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04036077185488732</v>
+        <v>0.03882355105108563</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1892098343.85656</v>
+        <v>1783013706.458291</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1038120813204609</v>
+        <v>0.1023962187141586</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03622844327300261</v>
+        <v>0.03593998411128899</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2194141084.281255</v>
+        <v>2786691404.739034</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1821987941277825</v>
+        <v>0.1761702899000504</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06100548223879283</v>
+        <v>0.04772723701089832</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1260526027.077894</v>
+        <v>1032244921.106169</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08371288115712723</v>
+        <v>0.09249186798792935</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02303288475546931</v>
+        <v>0.02792673866594459</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>824532534.386711</v>
+        <v>1059949300.59681</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08134487598759532</v>
+        <v>0.1060288214125905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0417283915752466</v>
+        <v>0.03181656617779206</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2758033712.945313</v>
+        <v>2212502335.882574</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1123465479775444</v>
+        <v>0.1497220457279018</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0251837885306561</v>
+        <v>0.02411875062569802</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1916913462.025604</v>
+        <v>2041816849.296927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1121793654125109</v>
+        <v>0.06878686634762918</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03331945156264152</v>
+        <v>0.03703973653032687</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1343005120.404686</v>
+        <v>2135215033.283716</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1022473365782877</v>
+        <v>0.09190589377584199</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03623889468798413</v>
+        <v>0.03155149405218397</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1495931316.819403</v>
+        <v>1879686315.475704</v>
       </c>
       <c r="F39" t="n">
-        <v>0.118742569645818</v>
+        <v>0.1755230558131402</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02453953226926421</v>
+        <v>0.02106002748740226</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573051956.113258</v>
+        <v>1649011272.852535</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1498894259081632</v>
+        <v>0.1409658183904552</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05375413039742549</v>
+        <v>0.06013465261765767</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2330236198.424041</v>
+        <v>1971547662.356821</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1064702603528926</v>
+        <v>0.1638566774503776</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03169985967993383</v>
+        <v>0.03787929257767374</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4193537153.145663</v>
+        <v>3833066854.447224</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08110867538488274</v>
+        <v>0.1172261606358144</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03164813843690274</v>
+        <v>0.03577954817022656</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2765366216.972408</v>
+        <v>2984912855.127248</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1635165766280738</v>
+        <v>0.1954620780616654</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02511827701209102</v>
+        <v>0.02536694434191179</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1755302890.10814</v>
+        <v>1803735195.960844</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07591868271476013</v>
+        <v>0.09663972788192336</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02278337389906816</v>
+        <v>0.02972425290682558</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2171557762.48971</v>
+        <v>2448121003.567314</v>
       </c>
       <c r="F45" t="n">
-        <v>0.126905815282537</v>
+        <v>0.1836286334249845</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04422162272083242</v>
+        <v>0.04652416428426556</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4514100558.497088</v>
+        <v>5317766221.899024</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1346157393008419</v>
+        <v>0.1173701884471906</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05934113572190598</v>
+        <v>0.04077882244691133</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4877444349.643353</v>
+        <v>3564179587.778566</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1489639234025595</v>
+        <v>0.1447072844838873</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03621663531699359</v>
+        <v>0.04761254700149975</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3549696385.551281</v>
+        <v>2934316492.624272</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1096766623837011</v>
+        <v>0.09122736572412576</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02671523202038981</v>
+        <v>0.0317941322640583</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291686453.303951</v>
+        <v>1966233080.311929</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1732062900469006</v>
+        <v>0.1215721004024332</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04056529402263531</v>
+        <v>0.0365308612187532</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3177883500.798788</v>
+        <v>3531089759.398811</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1563191490430042</v>
+        <v>0.1303368668412453</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03418701780751612</v>
+        <v>0.04698231691093525</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1455956299.921067</v>
+        <v>1306569331.625176</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1536377641533236</v>
+        <v>0.185507757415333</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04938073041424326</v>
+        <v>0.04450616810716818</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3317831068.398383</v>
+        <v>5146443305.845315</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0916540726399501</v>
+        <v>0.1009271107227455</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0572884843629908</v>
+        <v>0.05684339741819199</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2490787479.892204</v>
+        <v>2510854235.12932</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1523648556361828</v>
+        <v>0.1504107831995856</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0312189525450487</v>
+        <v>0.03438775326579305</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3342001189.239028</v>
+        <v>3247384127.962657</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1533304471218841</v>
+        <v>0.1028141655530413</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03351208625366162</v>
+        <v>0.04757024534798866</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3966203092.52956</v>
+        <v>3541785669.406851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2024398103668032</v>
+        <v>0.1404282225228453</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03118516098251083</v>
+        <v>0.02461900928210438</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1175687449.575635</v>
+        <v>1886930884.132145</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1076250152756257</v>
+        <v>0.1343345716728866</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03748455654999958</v>
+        <v>0.04977390587774414</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2766595371.965615</v>
+        <v>3775409073.751613</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1361463852058548</v>
+        <v>0.1574008288561134</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02600661050875048</v>
+        <v>0.02086317728695402</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1497568344.423937</v>
+        <v>1490734304.972193</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1490450707068587</v>
+        <v>0.1701950882434152</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02856934023659298</v>
+        <v>0.02701096879382402</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3666926019.784921</v>
+        <v>3962369096.400272</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09515611535191361</v>
+        <v>0.1138990904902434</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03390840603781355</v>
+        <v>0.03770881217708882</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3778668695.415483</v>
+        <v>2756409545.921122</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1577161216344707</v>
+        <v>0.1513915050964971</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02715644820826046</v>
+        <v>0.02958688486737734</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2785189002.830688</v>
+        <v>2133543454.828891</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1386093825453908</v>
+        <v>0.1662344285156916</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02672663058283417</v>
+        <v>0.02409065535824221</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1519653485.039355</v>
+        <v>1326069920.154369</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1631875642768218</v>
+        <v>0.1648969024526902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04872265985249862</v>
+        <v>0.04656942327196242</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5440418432.300363</v>
+        <v>3875081830.908665</v>
       </c>
       <c r="F63" t="n">
-        <v>0.107827800184242</v>
+        <v>0.07395145817740659</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0397556066509574</v>
+        <v>0.04278281655954197</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3885716140.597699</v>
+        <v>5361709977.354256</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1694416042928374</v>
+        <v>0.1841907766785327</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02931845173316862</v>
+        <v>0.0340758540068765</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5683193423.301702</v>
+        <v>5804948385.535663</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1380534937273527</v>
+        <v>0.1278230064789957</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02321448473308393</v>
+        <v>0.02194807121996229</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4673069479.750314</v>
+        <v>4286601023.032386</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1002348191236451</v>
+        <v>0.1150456846524067</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03630014034641137</v>
+        <v>0.04040973032841078</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2769205051.284913</v>
+        <v>2208737686.682178</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08097375007844443</v>
+        <v>0.09697878461902093</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03919647644275786</v>
+        <v>0.0319525679759096</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4163003951.56003</v>
+        <v>5053332568.358049</v>
       </c>
       <c r="F68" t="n">
-        <v>0.118784186700102</v>
+        <v>0.1328996365925221</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03858748035198311</v>
+        <v>0.0412423793932265</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1882858158.264078</v>
+        <v>2437008775.874638</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1822988631290357</v>
+        <v>0.1684493558517757</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05853196944388598</v>
+        <v>0.04374695438623608</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2284344798.336179</v>
+        <v>2974596032.152396</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101591607916418</v>
+        <v>0.07444918568341465</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04457060099393039</v>
+        <v>0.03723512779860248</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4277999984.164561</v>
+        <v>4672626785.955972</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1676454253968914</v>
+        <v>0.116221340637346</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02779115636474313</v>
+        <v>0.02561846229204089</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1782887276.718163</v>
+        <v>1604935383.689255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08877341991870891</v>
+        <v>0.07124179412656266</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0512454077537106</v>
+        <v>0.0395889960635625</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3105952069.51891</v>
+        <v>3191754800.36537</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109953760966315</v>
+        <v>0.09131743515658977</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03547112361609063</v>
+        <v>0.04357570391057661</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3957302690.782813</v>
+        <v>2638491526.526444</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1210087844753995</v>
+        <v>0.1602319907153511</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02686157357572976</v>
+        <v>0.02209901906896447</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2290294091.524942</v>
+        <v>2219058582.840463</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1600306048808314</v>
+        <v>0.1624449699500382</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02842191842024007</v>
+        <v>0.02448862827952939</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3965024351.071903</v>
+        <v>4058769128.931489</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08187390089059453</v>
+        <v>0.1091075900671026</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03155868995365207</v>
+        <v>0.03041982101884259</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1953387295.937917</v>
+        <v>1505828903.298765</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1588081263515743</v>
+        <v>0.1460004459755893</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02073995519466243</v>
+        <v>0.03053137460566958</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4720855151.129417</v>
+        <v>4651786601.787352</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1145866959482133</v>
+        <v>0.103680074141252</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03562547061339805</v>
+        <v>0.04287491757277881</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1493475849.113138</v>
+        <v>1557837033.377769</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1373351697980467</v>
+        <v>0.1173323998518915</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02600655511582445</v>
+        <v>0.03356729551322147</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4812665799.821403</v>
+        <v>4361728920.606142</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07126584491077512</v>
+        <v>0.1059606135244471</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03191269730585584</v>
+        <v>0.03234953297181403</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4577870195.372442</v>
+        <v>3336992293.038729</v>
       </c>
       <c r="F81" t="n">
-        <v>0.116688594112188</v>
+        <v>0.1089585715198436</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02898569503701171</v>
+        <v>0.02082056728245922</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3511649819.447267</v>
+        <v>3590824790.107869</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1852568727557135</v>
+        <v>0.2044043160136373</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02257330638558271</v>
+        <v>0.02155052155714464</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1697973479.85578</v>
+        <v>2354550641.028774</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1278326997645372</v>
+        <v>0.117854235505937</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04288617013911893</v>
+        <v>0.03065503073087077</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2521562301.623339</v>
+        <v>2382426218.498543</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1205708022960238</v>
+        <v>0.09540574895312808</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04231792471390314</v>
+        <v>0.04815998887296392</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3222475463.578889</v>
+        <v>3542489125.648238</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1509625396934831</v>
+        <v>0.1520188851121646</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05176223836888254</v>
+        <v>0.03742495640335263</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2179518879.70694</v>
+        <v>1866054690.099913</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1311560142946805</v>
+        <v>0.1551755587607069</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02753394413992951</v>
+        <v>0.01734522714657422</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1251925752.413219</v>
+        <v>923165363.9219599</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1717020885101206</v>
+        <v>0.1236284930811843</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03369185849608664</v>
+        <v>0.03535733954540778</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2463872005.830574</v>
+        <v>3337906566.987802</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1680819136160767</v>
+        <v>0.1647538821840372</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02727274438546336</v>
+        <v>0.02873339686360356</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2954166575.616673</v>
+        <v>3177325576.875223</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1449405505028693</v>
+        <v>0.1341117062147667</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0371418995558525</v>
+        <v>0.03503498050704647</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1663085029.630063</v>
+        <v>1951066052.681219</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286324463024951</v>
+        <v>0.1237051558941521</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05492791258433303</v>
+        <v>0.03826451197312353</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1727001511.297539</v>
+        <v>1510423096.849955</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1728074302666908</v>
+        <v>0.1761693368723169</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03823798958353587</v>
+        <v>0.05103911187006754</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2064390494.619514</v>
+        <v>2215681252.664677</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0910244658573208</v>
+        <v>0.08543962812293818</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04072467168183182</v>
+        <v>0.04276389361264371</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4780868167.515065</v>
+        <v>3981789392.366047</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1378287141122501</v>
+        <v>0.1041570153955849</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04710068822841506</v>
+        <v>0.03525123973439181</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2110605931.177134</v>
+        <v>2122312336.27788</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1374392406196536</v>
+        <v>0.1158721616983013</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03545393531742424</v>
+        <v>0.02654592599667547</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3060032110.05503</v>
+        <v>2158998587.974468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1093534665929406</v>
+        <v>0.1077213530500557</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03664016981915087</v>
+        <v>0.03477618324417967</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1992967999.147872</v>
+        <v>1784888528.530732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1290265984214674</v>
+        <v>0.104667665864331</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03326601591122118</v>
+        <v>0.02965521779544224</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5383170942.272988</v>
+        <v>5232773023.106901</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1133179917455003</v>
+        <v>0.1737125871223472</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0221085589252308</v>
+        <v>0.02913727230405382</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3274254036.286362</v>
+        <v>3338202323.387276</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1044669578318937</v>
+        <v>0.1094780157059766</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02069904142491277</v>
+        <v>0.02282983382235442</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2435289064.716028</v>
+        <v>3194587240.146003</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1066701915958304</v>
+        <v>0.1317233144772671</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03331114912167824</v>
+        <v>0.02673235058203435</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4810117860.085279</v>
+        <v>4243687176.996982</v>
       </c>
       <c r="F100" t="n">
-        <v>0.131920772229567</v>
+        <v>0.1278931970465601</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01708469911568254</v>
+        <v>0.02003954883436172</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2216072419.419887</v>
+        <v>2572946404.091397</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1665203087224435</v>
+        <v>0.211214915543316</v>
       </c>
       <c r="G101" t="n">
-        <v>0.050096241591769</v>
+        <v>0.0364846872183439</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_360.xlsx
+++ b/output/fit_clients/fit_round_360.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2403040379.398551</v>
+        <v>1546779989.966765</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07755926833464728</v>
+        <v>0.09071209947193649</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04111557886699287</v>
+        <v>0.04140008565661971</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2169061421.73335</v>
+        <v>2048619907.663494</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1611988879769322</v>
+        <v>0.1116096648062859</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04868705335809598</v>
+        <v>0.03580355568126704</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3981598606.248953</v>
+        <v>4931916875.662164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1308433240708203</v>
+        <v>0.1211163368599378</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03182469200110825</v>
+        <v>0.02963395712108486</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59.43569340595466</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3034705281.96602</v>
+        <v>3815397882.080921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07096698282620108</v>
+        <v>0.07453083836991499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03999809263294031</v>
+        <v>0.04973973682065328</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>143</v>
+      </c>
+      <c r="J5" t="n">
+        <v>360</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2559199135.268764</v>
+        <v>2116021740.597763</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09162095487719771</v>
+        <v>0.1420119448976512</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0508118082474272</v>
+        <v>0.05337701636723936</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2153490282.369275</v>
+        <v>2761105999.118373</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07464139390351629</v>
+        <v>0.08938106997611189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03651422741928896</v>
+        <v>0.04313842689778415</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3648737065.491738</v>
+        <v>2435600424.170314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1423262162503451</v>
+        <v>0.1858409955679771</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03163018111916226</v>
+        <v>0.03246402331770687</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1801185935.024644</v>
+        <v>1916788612.829334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.180808722898032</v>
+        <v>0.1670546348336576</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03083603765136138</v>
+        <v>0.02492950907746707</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3804619094.645242</v>
+        <v>4350693227.953805</v>
       </c>
       <c r="F10" t="n">
-        <v>0.164323442831335</v>
+        <v>0.1586857930025374</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03558906581051449</v>
+        <v>0.03878727439926583</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>301</v>
+      </c>
+      <c r="J10" t="n">
+        <v>360</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3773369447.272982</v>
+        <v>2835888482.26387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1725584165708814</v>
+        <v>0.1353194548868066</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03499889952192754</v>
+        <v>0.03687766868788641</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>359</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.31511170985614</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2591341742.012983</v>
+        <v>2199026628.665288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1528213112998059</v>
+        <v>0.1563960064023359</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04431416278520232</v>
+        <v>0.05205641004206888</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4244637928.272292</v>
+        <v>3910829401.102208</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07088603280511734</v>
+        <v>0.07407829478411147</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02557498715519165</v>
+        <v>0.02302487164761926</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>187</v>
+      </c>
+      <c r="J13" t="n">
+        <v>359</v>
+      </c>
+      <c r="K13" t="n">
+        <v>58.85232707682492</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3581650906.773894</v>
+        <v>3426434884.612195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1820385965009817</v>
+        <v>0.1421218683368128</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03777293849783095</v>
+        <v>0.04158562595720212</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="n">
+        <v>60.22203738013822</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1372053235.713992</v>
+        <v>1316577339.225371</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07587995556580422</v>
+        <v>0.1009730347288147</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03229471653332623</v>
+        <v>0.04321787457007632</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2715118567.072952</v>
+        <v>2174918677.734429</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09340729845033216</v>
+        <v>0.1045488442929881</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04053881786988926</v>
+        <v>0.05067997000056131</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4743172980.28109</v>
+        <v>3444860561.488026</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1328984828891572</v>
+        <v>0.1255693776210164</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04544448317967229</v>
+        <v>0.05006929210395205</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>170</v>
+      </c>
+      <c r="J17" t="n">
+        <v>358</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2613854281.012204</v>
+        <v>3604569376.139049</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1299076140723188</v>
+        <v>0.1462495841802164</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02744131625003697</v>
+        <v>0.02569808882827769</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>356</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1301660875.486688</v>
+        <v>957321520.2350451</v>
       </c>
       <c r="F19" t="n">
-        <v>0.189060278774389</v>
+        <v>0.1558507481507196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01830105064008603</v>
+        <v>0.02326165621081939</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2096954971.26143</v>
+        <v>1978332746.273657</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435137281142468</v>
+        <v>0.1100622849536626</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01963507461582391</v>
+        <v>0.02612841941838872</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2066828753.825639</v>
+        <v>2633337290.453293</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07832007937925148</v>
+        <v>0.06891451412703763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04093581260278001</v>
+        <v>0.03491185569873623</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2676276456.008681</v>
+        <v>3552641360.958238</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1102603450108331</v>
+        <v>0.122068989715978</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04713075890970412</v>
+        <v>0.05338483054800191</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>98</v>
+      </c>
+      <c r="J22" t="n">
+        <v>358</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1407777233.072769</v>
+        <v>1074716482.086612</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1290314841575409</v>
+        <v>0.1637794648138693</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03679295199958982</v>
+        <v>0.04391612054833315</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2929775745.709418</v>
+        <v>4027566042.558806</v>
       </c>
       <c r="F24" t="n">
-        <v>0.143391118039159</v>
+        <v>0.1467096180551574</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03366526969852401</v>
+        <v>0.02269501018933448</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>109</v>
+      </c>
+      <c r="J24" t="n">
+        <v>360</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1380044570.820466</v>
+        <v>970778798.3640594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07835716525865093</v>
+        <v>0.1034578805422461</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02153127701193006</v>
+        <v>0.02745904213857541</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1059050390.135217</v>
+        <v>1346847281.360592</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1177637629485282</v>
+        <v>0.07662756646820544</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03570128779150988</v>
+        <v>0.03413771941661792</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2916822389.576736</v>
+        <v>4464265449.412275</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1220514458845109</v>
+        <v>0.1053316654174965</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02132697301661417</v>
+        <v>0.02313517810171852</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>151</v>
+      </c>
+      <c r="J27" t="n">
+        <v>359</v>
+      </c>
+      <c r="K27" t="n">
+        <v>61.42066204654088</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2384621641.539898</v>
+        <v>3535768042.746147</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1488327910073109</v>
+        <v>0.1483263608934919</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05012887853800894</v>
+        <v>0.0420157887229403</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5866491214.836219</v>
+        <v>4119554871.247532</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1000017234250891</v>
+        <v>0.102965208388764</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03355190296616185</v>
+        <v>0.03591828496923623</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>318</v>
+      </c>
+      <c r="J29" t="n">
+        <v>359</v>
+      </c>
+      <c r="K29" t="n">
+        <v>59.74932738250804</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1720974281.146089</v>
+        <v>1865045181.709248</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08864553317051001</v>
+        <v>0.08635857975432963</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02489753418726698</v>
+        <v>0.02816421482403267</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1300953437.176942</v>
+        <v>1314795280.924254</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08743189016824118</v>
+        <v>0.1119393355099134</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03882355105108563</v>
+        <v>0.03873173410674727</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1783013706.458291</v>
+        <v>1204061250.659069</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1023962187141586</v>
+        <v>0.116628867016023</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03593998411128899</v>
+        <v>0.02576910164107358</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2786691404.739034</v>
+        <v>2254650643.482012</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1761702899000504</v>
+        <v>0.1956651746416933</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04772723701089832</v>
+        <v>0.04476588999072655</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1032244921.106169</v>
+        <v>1538673208.324156</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09249186798792935</v>
+        <v>0.1072547101926836</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02792673866594459</v>
+        <v>0.01725681958213075</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1059949300.59681</v>
+        <v>1160424196.685461</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1060288214125905</v>
+        <v>0.1050147361917712</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03181656617779206</v>
+        <v>0.04347717027658102</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2212502335.882574</v>
+        <v>2531913641.709688</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1497220457279018</v>
+        <v>0.1781735205351392</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02411875062569802</v>
+        <v>0.0230275632389976</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2041816849.296927</v>
+        <v>2765083623.099568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06878686634762918</v>
+        <v>0.0757363507375844</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03703973653032687</v>
+        <v>0.02894392347283083</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2135215033.283716</v>
+        <v>2123486001.879698</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09190589377584199</v>
+        <v>0.08202937091489503</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03155149405218397</v>
+        <v>0.02464626272801883</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1879686315.475704</v>
+        <v>1756433982.348834</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1755230558131402</v>
+        <v>0.1642717388435409</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02106002748740226</v>
+        <v>0.02623926017039418</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1649011272.852535</v>
+        <v>1411780856.308319</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1409658183904552</v>
+        <v>0.1149174431690614</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06013465261765767</v>
+        <v>0.03781717691429214</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1971547662.356821</v>
+        <v>2210816157.473239</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1638566774503776</v>
+        <v>0.1057195169041913</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03787929257767374</v>
+        <v>0.04572721102000427</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3833066854.447224</v>
+        <v>4256142063.307154</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1172261606358144</v>
+        <v>0.09789906446039504</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03577954817022656</v>
+        <v>0.03384297978007735</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>158</v>
+      </c>
+      <c r="J42" t="n">
+        <v>360</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.78242828931884</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2984912855.127248</v>
+        <v>2898224872.62636</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1954620780616654</v>
+        <v>0.1685114460590359</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02536694434191179</v>
+        <v>0.02457064334035292</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1803735195.960844</v>
+        <v>1868936261.995789</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09663972788192336</v>
+        <v>0.09155651092597469</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02972425290682558</v>
+        <v>0.02238510205705291</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2448121003.567314</v>
+        <v>1705302299.35219</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1836286334249845</v>
+        <v>0.1814095675812805</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04652416428426556</v>
+        <v>0.05107325877430786</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5317766221.899024</v>
+        <v>3474863578.277278</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1173701884471906</v>
+        <v>0.1240558848953306</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04077882244691133</v>
+        <v>0.04475765415082849</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>216</v>
+      </c>
+      <c r="J46" t="n">
+        <v>359</v>
+      </c>
+      <c r="K46" t="n">
+        <v>47.55195586762552</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3564179587.778566</v>
+        <v>3689957264.048001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1447072844838873</v>
+        <v>0.1677777144796311</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04761254700149975</v>
+        <v>0.04179760026976247</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>161</v>
+      </c>
+      <c r="J47" t="n">
+        <v>359</v>
+      </c>
+      <c r="K47" t="n">
+        <v>47.99559072340702</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2934316492.624272</v>
+        <v>3162649225.165031</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09122736572412576</v>
+        <v>0.09974005840164982</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0317941322640583</v>
+        <v>0.03623102497913377</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>184</v>
+      </c>
+      <c r="J48" t="n">
+        <v>359</v>
+      </c>
+      <c r="K48" t="n">
+        <v>38.21820243319004</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1966233080.311929</v>
+        <v>1829360452.714517</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1215721004024332</v>
+        <v>0.1792962707798962</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0365308612187532</v>
+        <v>0.04422542887025824</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3531089759.398811</v>
+        <v>3935908471.844258</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1303368668412453</v>
+        <v>0.1763488025765858</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04698231691093525</v>
+        <v>0.03903704047761034</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>119</v>
+      </c>
+      <c r="J50" t="n">
+        <v>360</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1306569331.625176</v>
+        <v>1329959313.994425</v>
       </c>
       <c r="F51" t="n">
-        <v>0.185507757415333</v>
+        <v>0.1796609774170216</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04450616810716818</v>
+        <v>0.04736405693052037</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5146443305.845315</v>
+        <v>4513976997.277823</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1009271107227455</v>
+        <v>0.1242401684583596</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05684339741819199</v>
+        <v>0.04671405202682694</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>213</v>
+      </c>
+      <c r="J52" t="n">
+        <v>360</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2510854235.12932</v>
+        <v>3198629132.328745</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1504107831995856</v>
+        <v>0.2032736211569733</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03438775326579305</v>
+        <v>0.02472239485866654</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3247384127.962657</v>
+        <v>4897390763.70214</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1028141655530413</v>
+        <v>0.1128676560009267</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04757024534798866</v>
+        <v>0.04291330761821151</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>190</v>
+      </c>
+      <c r="J54" t="n">
+        <v>360</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3541785669.406851</v>
+        <v>3936110741.530017</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1404282225228453</v>
+        <v>0.1545123506055446</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02461900928210438</v>
+        <v>0.02957319071392984</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>172</v>
+      </c>
+      <c r="J55" t="n">
+        <v>360</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1886930884.132145</v>
+        <v>1749697663.711601</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1343345716728866</v>
+        <v>0.1294352447910443</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04977390587774414</v>
+        <v>0.05673245297458016</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3775409073.751613</v>
+        <v>4085657014.711351</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1574008288561134</v>
+        <v>0.1786743958779078</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02086317728695402</v>
+        <v>0.01695712705125101</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>149</v>
+      </c>
+      <c r="J57" t="n">
+        <v>360</v>
+      </c>
+      <c r="K57" t="n">
+        <v>66.47997382638586</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1490734304.972193</v>
+        <v>1271889572.570721</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1701950882434152</v>
+        <v>0.1978978526543908</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02701096879382402</v>
+        <v>0.03497591221316441</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3962369096.400272</v>
+        <v>3883839900.038282</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1138990904902434</v>
+        <v>0.1098289211904046</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03770881217708882</v>
+        <v>0.04905396293667633</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>174</v>
+      </c>
+      <c r="J59" t="n">
+        <v>360</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2756409545.921122</v>
+        <v>2501687760.983134</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1513915050964971</v>
+        <v>0.1425162233160429</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02958688486737734</v>
+        <v>0.03224400958863083</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34.08861715658207</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2133543454.828891</v>
+        <v>2372122052.056595</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1662344285156916</v>
+        <v>0.130959886184506</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02409065535824221</v>
+        <v>0.03281696846420437</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1326069920.154369</v>
+        <v>1818981573.366365</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1648969024526902</v>
+        <v>0.1942728771002013</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04656942327196242</v>
+        <v>0.0341077431778546</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3875081830.908665</v>
+        <v>4767766913.310327</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07395145817740659</v>
+        <v>0.0808172999213234</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04278281655954197</v>
+        <v>0.03659593978212924</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>177</v>
+      </c>
+      <c r="J63" t="n">
+        <v>359</v>
+      </c>
+      <c r="K63" t="n">
+        <v>61.18904148847078</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5361709977.354256</v>
+        <v>5059498958.918716</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1841907766785327</v>
+        <v>0.181475393473421</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0340758540068765</v>
+        <v>0.02508907204129097</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>178</v>
+      </c>
+      <c r="J64" t="n">
+        <v>360</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5804948385.535663</v>
+        <v>5433232818.519243</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1278230064789957</v>
+        <v>0.1450892244873365</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02194807121996229</v>
+        <v>0.02050146984425595</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>275</v>
+      </c>
+      <c r="J65" t="n">
+        <v>359</v>
+      </c>
+      <c r="K65" t="n">
+        <v>61.3170048901758</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4286601023.032386</v>
+        <v>5616596267.19979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1150456846524067</v>
+        <v>0.1073801581598397</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04040973032841078</v>
+        <v>0.04791298728142698</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>178</v>
+      </c>
+      <c r="J66" t="n">
+        <v>359</v>
+      </c>
+      <c r="K66" t="n">
+        <v>57.21181005713544</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2208737686.682178</v>
+        <v>2984559926.866015</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09697878461902093</v>
+        <v>0.07516145071511358</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0319525679759096</v>
+        <v>0.03514305392661041</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5053332568.358049</v>
+        <v>4186585605.351367</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1328996365925221</v>
+        <v>0.1016953662800593</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0412423793932265</v>
+        <v>0.04338162597696499</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>195</v>
+      </c>
+      <c r="J68" t="n">
+        <v>360</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2437008775.874638</v>
+        <v>2323909283.722217</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1684493558517757</v>
+        <v>0.1526436746447799</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04374695438623608</v>
+        <v>0.05893147561036413</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2974596032.152396</v>
+        <v>3276881087.039121</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07444918568341465</v>
+        <v>0.09072986311928533</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03723512779860248</v>
+        <v>0.04648546875919804</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4672626785.955972</v>
+        <v>3816382810.391271</v>
       </c>
       <c r="F71" t="n">
-        <v>0.116221340637346</v>
+        <v>0.11210257458189</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02561846229204089</v>
+        <v>0.02656226305448921</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>261</v>
+      </c>
+      <c r="J71" t="n">
+        <v>359</v>
+      </c>
+      <c r="K71" t="n">
+        <v>56.60288879286786</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1604935383.689255</v>
+        <v>1795857087.228991</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07124179412656266</v>
+        <v>0.08582468606108069</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0395889960635625</v>
+        <v>0.03225025121902331</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3191754800.36537</v>
+        <v>3249524688.652318</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09131743515658977</v>
+        <v>0.1045736236347175</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04357570391057661</v>
+        <v>0.035254932525062</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2638491526.526444</v>
+        <v>3945473318.580198</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1602319907153511</v>
+        <v>0.168494875936635</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02209901906896447</v>
+        <v>0.03022988474725313</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100</v>
+      </c>
+      <c r="J74" t="n">
+        <v>360</v>
+      </c>
+      <c r="K74" t="n">
+        <v>75.970889303612</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2219058582.840463</v>
+        <v>1870833055.712415</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1624449699500382</v>
+        <v>0.141443996387315</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02448862827952939</v>
+        <v>0.0271539366073843</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4058769128.931489</v>
+        <v>5205851387.109296</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1091075900671026</v>
+        <v>0.1093236691288109</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03041982101884259</v>
+        <v>0.02878853885592623</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>170</v>
+      </c>
+      <c r="J76" t="n">
+        <v>360</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1505828903.298765</v>
+        <v>1562258930.313773</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1460004459755893</v>
+        <v>0.1237423987344877</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03053137460566958</v>
+        <v>0.03139083953398149</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4651786601.787352</v>
+        <v>4533688408.138569</v>
       </c>
       <c r="F78" t="n">
-        <v>0.103680074141252</v>
+        <v>0.08593566394121226</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04287491757277881</v>
+        <v>0.03729855527888268</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>179</v>
+      </c>
+      <c r="J78" t="n">
+        <v>360</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1557837033.377769</v>
+        <v>1844296965.152129</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1173323998518915</v>
+        <v>0.1395560726808946</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03356729551322147</v>
+        <v>0.03817518684925772</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4361728920.606142</v>
+        <v>4982532884.335053</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1059606135244471</v>
+        <v>0.1006304870884338</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03234953297181403</v>
+        <v>0.03236842202621931</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>176</v>
+      </c>
+      <c r="J80" t="n">
+        <v>359</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.02220693605983</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3336992293.038729</v>
+        <v>4842980452.197584</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1089585715198436</v>
+        <v>0.1073336998663149</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02082056728245922</v>
+        <v>0.02114220371584114</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>166</v>
+      </c>
+      <c r="J81" t="n">
+        <v>360</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3590824790.107869</v>
+        <v>4574492982.822423</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2044043160136373</v>
+        <v>0.1844491287895413</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02155052155714464</v>
+        <v>0.02067574536082377</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>253</v>
+      </c>
+      <c r="J82" t="n">
+        <v>360</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2354550641.028774</v>
+        <v>2389813171.732013</v>
       </c>
       <c r="F83" t="n">
-        <v>0.117854235505937</v>
+        <v>0.1271491387795174</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03065503073087077</v>
+        <v>0.04205175660775034</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2382426218.498543</v>
+        <v>1573329629.936846</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09540574895312808</v>
+        <v>0.1067787112640312</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04815998887296392</v>
+        <v>0.04220890401240223</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3542489125.648238</v>
+        <v>2280008438.400424</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1520188851121646</v>
+        <v>0.1414002814056689</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03742495640335263</v>
+        <v>0.03416012798145895</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1866054690.099913</v>
+        <v>2709039874.08738</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1551755587607069</v>
+        <v>0.1206002803155027</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01734522714657422</v>
+        <v>0.02090067181238013</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>923165363.9219599</v>
+        <v>1372767388.737253</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1236284930811843</v>
+        <v>0.1436368995260417</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03535733954540778</v>
+        <v>0.03934944765408263</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3337906566.987802</v>
+        <v>3596302374.614408</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1647538821840372</v>
+        <v>0.1114435602878535</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02873339686360356</v>
+        <v>0.03231724910339898</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3177325576.875223</v>
+        <v>3246195531.889751</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1341117062147667</v>
+        <v>0.1385187597441246</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03503498050704647</v>
+        <v>0.04114685366615409</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1951066052.681219</v>
+        <v>1971766922.239711</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1237051558941521</v>
+        <v>0.1216557485990798</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03826451197312353</v>
+        <v>0.04161107703684025</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1510423096.849955</v>
+        <v>1578586635.336506</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1761693368723169</v>
+        <v>0.182009078497299</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05103911187006754</v>
+        <v>0.05437287436674902</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2215681252.664677</v>
+        <v>2303591889.730961</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08543962812293818</v>
+        <v>0.06943417588904634</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04276389361264371</v>
+        <v>0.02887694765228943</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3981789392.366047</v>
+        <v>4992615272.735747</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1041570153955849</v>
+        <v>0.1273851367933179</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03525123973439181</v>
+        <v>0.0448063968929862</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>168</v>
+      </c>
+      <c r="J93" t="n">
+        <v>360</v>
+      </c>
+      <c r="K93" t="n">
+        <v>62.87551823847078</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2122312336.27788</v>
+        <v>1679612038.715115</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1158721616983013</v>
+        <v>0.1460536837302739</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02654592599667547</v>
+        <v>0.04295616441015681</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2158998587.974468</v>
+        <v>2968424510.230095</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1077213530500557</v>
+        <v>0.08855207855056919</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03477618324417967</v>
+        <v>0.04194407046019986</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1784888528.530732</v>
+        <v>1801668176.042373</v>
       </c>
       <c r="F96" t="n">
-        <v>0.104667665864331</v>
+        <v>0.1287147085748941</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02965521779544224</v>
+        <v>0.03492718471966979</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5232773023.106901</v>
+        <v>3717228011.894932</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1737125871223472</v>
+        <v>0.1091733954295753</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02913727230405382</v>
+        <v>0.02281201133065964</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>185</v>
+      </c>
+      <c r="J97" t="n">
+        <v>357</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3338202323.387276</v>
+        <v>3757175979.460405</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1094780157059766</v>
+        <v>0.1189956950972697</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02282983382235442</v>
+        <v>0.02215371029311749</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>360</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3194587240.146003</v>
+        <v>3399675747.076005</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1317233144772671</v>
+        <v>0.1454038149510839</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02673235058203435</v>
+        <v>0.03099893299194516</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4243687176.996982</v>
+        <v>3960493661.037858</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1278931970465601</v>
+        <v>0.1148904879250123</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02003954883436172</v>
+        <v>0.02006610215673371</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>162</v>
+      </c>
+      <c r="J100" t="n">
+        <v>360</v>
+      </c>
+      <c r="K100" t="n">
+        <v>62.80498691201085</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2572946404.091397</v>
+        <v>2985402130.587008</v>
       </c>
       <c r="F101" t="n">
-        <v>0.211214915543316</v>
+        <v>0.1503383419892162</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0364846872183439</v>
+        <v>0.05478546683812768</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
